--- a/docs/テスト仕様書/【勤怠管理システム_テスト仕様書】KK01001_ログイン画面.xlsx
+++ b/docs/テスト仕様書/【勤怠管理システム_テスト仕様書】KK01001_ログイン画面.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD01B7F-FD1E-4F12-925A-30BD01BC7366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF35DF-92D7-4827-922A-02173C7D5FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -313,6 +313,10 @@
     <rPh sb="8" eb="9">
       <t>クズ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1961,7 +1965,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -2035,9 +2039,15 @@
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="15">
+        <v>44127</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -2065,9 +2075,15 @@
       <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="15">
+        <v>44127</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -2080,9 +2096,15 @@
       <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="15">
+        <v>44127</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -2095,9 +2117,15 @@
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="15">
+        <v>44127</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -2110,9 +2138,15 @@
       <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="15">
+        <v>44127</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -2432,6 +2466,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
@@ -2444,28 +2496,11 @@
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2958,16 +2993,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -2980,14 +3013,16 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
